--- a/Player Database/Drogba.xlsx
+++ b/Player Database/Drogba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="28">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Super</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">Montreal</t>
@@ -317,16 +314,15 @@
   </sheetPr>
   <dimension ref="A1:H578"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A491" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D508" activeCellId="0" sqref="D508 D514 D516 D527:D529 D540 D553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,8 +13397,8 @@
       <c r="C508" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D508" s="0" t="s">
-        <v>26</v>
+      <c r="D508" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E508" s="3" t="n">
         <v>0</v>
@@ -13549,8 +13545,8 @@
       <c r="C514" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D514" s="0" t="s">
-        <v>26</v>
+      <c r="D514" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E514" s="3" t="n">
         <v>0</v>
@@ -13601,8 +13597,8 @@
       <c r="C516" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D516" s="0" t="s">
-        <v>26</v>
+      <c r="D516" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E516" s="3" t="n">
         <v>0</v>
@@ -13855,8 +13851,8 @@
       <c r="C527" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D527" s="0" t="s">
-        <v>26</v>
+      <c r="D527" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E527" s="3" t="n">
         <v>0</v>
@@ -13881,8 +13877,8 @@
       <c r="C528" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D528" s="0" t="s">
-        <v>26</v>
+      <c r="D528" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E528" s="3" t="n">
         <v>0</v>
@@ -13907,8 +13903,8 @@
       <c r="C529" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D529" s="0" t="s">
-        <v>26</v>
+      <c r="D529" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E529" s="3" t="n">
         <v>0</v>
@@ -14185,8 +14181,8 @@
       <c r="C540" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D540" s="0" t="s">
-        <v>26</v>
+      <c r="D540" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E540" s="3" t="n">
         <v>0</v>
@@ -14515,8 +14511,8 @@
       <c r="C553" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D553" s="0" t="s">
-        <v>26</v>
+      <c r="D553" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E553" s="3" t="n">
         <v>0</v>
@@ -14559,13 +14555,13 @@
     </row>
     <row r="555" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B555" s="4" t="n">
         <v>42316</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D555" s="0" t="n">
         <v>90</v>
@@ -14585,13 +14581,13 @@
     </row>
     <row r="556" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B556" s="4" t="n">
         <v>42309</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D556" s="0" t="n">
         <v>90</v>
@@ -14611,13 +14607,13 @@
     </row>
     <row r="557" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B557" s="4" t="n">
         <v>42306</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D557" s="0" t="n">
         <v>90</v>
@@ -14637,13 +14633,13 @@
     </row>
     <row r="558" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B558" s="4" t="n">
         <v>42302</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D558" s="0" t="n">
         <v>90</v>
@@ -14663,13 +14659,13 @@
     </row>
     <row r="559" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B559" s="4" t="n">
         <v>42294</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D559" s="0" t="n">
         <v>90</v>
@@ -14689,13 +14685,13 @@
     </row>
     <row r="560" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B560" s="4" t="n">
         <v>42287</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D560" s="0" t="n">
         <v>90</v>
@@ -14715,13 +14711,13 @@
     </row>
     <row r="561" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B561" s="4" t="n">
         <v>42284</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D561" s="0" t="n">
         <v>90</v>
@@ -14741,13 +14737,13 @@
     </row>
     <row r="562" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B562" s="4" t="n">
         <v>42280</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D562" s="0" t="n">
         <v>32</v>
@@ -14767,13 +14763,13 @@
     </row>
     <row r="563" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B563" s="4" t="n">
         <v>42273</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D563" s="0" t="n">
         <v>90</v>
@@ -14793,13 +14789,13 @@
     </row>
     <row r="564" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B564" s="4" t="n">
         <v>42270</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D564" s="0" t="n">
         <v>90</v>
@@ -14819,13 +14815,13 @@
     </row>
     <row r="565" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B565" s="4" t="n">
         <v>42266</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D565" s="0" t="n">
         <v>90</v>
@@ -14845,13 +14841,13 @@
     </row>
     <row r="566" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B566" s="4" t="n">
         <v>42259</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D566" s="0" t="n">
         <v>90</v>
@@ -14871,13 +14867,13 @@
     </row>
     <row r="567" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B567" s="4" t="n">
         <v>42252</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D567" s="0" t="n">
         <v>90</v>
@@ -14897,13 +14893,13 @@
     </row>
     <row r="568" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B568" s="4" t="n">
         <v>42238</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D568" s="0" t="n">
         <v>32</v>
@@ -14923,13 +14919,13 @@
     </row>
     <row r="569" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B569" s="4" t="n">
         <v>42546</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D569" s="0" t="n">
         <v>90</v>
@@ -14949,13 +14945,13 @@
     </row>
     <row r="570" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B570" s="4" t="n">
         <v>42539</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D570" s="0" t="n">
         <v>90</v>
@@ -14975,13 +14971,13 @@
     </row>
     <row r="571" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B571" s="4" t="n">
         <v>42518</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D571" s="0" t="n">
         <v>90</v>
@@ -15001,13 +14997,13 @@
     </row>
     <row r="572" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B572" s="4" t="n">
         <v>42504</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D572" s="0" t="n">
         <v>69</v>
@@ -15027,13 +15023,13 @@
     </row>
     <row r="573" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B573" s="4" t="n">
         <v>42497</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D573" s="0" t="n">
         <v>90</v>
@@ -15053,13 +15049,13 @@
     </row>
     <row r="574" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B574" s="4" t="n">
         <v>42490</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D574" s="0" t="n">
         <v>90</v>
@@ -15079,13 +15075,13 @@
     </row>
     <row r="575" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B575" s="4" t="n">
         <v>42487</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D575" s="0" t="n">
         <v>90</v>
@@ -15105,13 +15101,13 @@
     </row>
     <row r="576" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B576" s="4" t="n">
         <v>42483</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D576" s="0" t="n">
         <v>90</v>
@@ -15131,13 +15127,13 @@
     </row>
     <row r="577" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B577" s="4" t="n">
         <v>42476</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D577" s="0" t="n">
         <v>41</v>
@@ -15157,13 +15153,13 @@
     </row>
     <row r="578" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B578" s="4" t="n">
         <v>42448</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D578" s="0" t="n">
         <v>21</v>
